--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604855.2483871302</v>
+        <v>662547.5911999427</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>236428.3313983646</v>
+        <v>335414.3901624717</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9662474.503279345</v>
+        <v>10905804.67830212</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8911793.850395845</v>
+        <v>8295486.93439647</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>20.75911149906594</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023554</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023554</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="3">
@@ -740,22 +740,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>37.36735872349313</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>215.4108546636942</v>
       </c>
       <c r="E5" t="n">
-        <v>354.4814911606022</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>160.0040229592632</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>3.888834254466539</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>7.944621118398338</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>36.85550713744951</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>105.3830043755881</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229296</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>86.88462298447467</v>
+        <v>5.632598604764183</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>277.9437615581081</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>193.2211155491346</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I12" t="n">
         <v>61.42221998250818</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>47.14167849255895</v>
       </c>
     </row>
     <row r="14">
@@ -1612,13 +1612,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>283.8898270650866</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>253.2392985316883</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>296.3893874315644</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>242.0561981984261</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>108.219802131625</v>
+        <v>101.717706569126</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>100.7645774914512</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>61.63452494711053</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V22" t="n">
-        <v>208.2793294336578</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.855934149422819</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.749868193722572</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.6993815150876</v>
+        <v>26.32882004050031</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>23.53685912231432</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>296.7650756691945</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>201.089163843681</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>346.3262019169339</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>230.0960461128929</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>43.31785343914003</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>162.3364906735235</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>382.8507525602069</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>328.2169901895124</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>132.2469794718867</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -3328,10 +3328,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>306.7837667286673</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>85.87170836083672</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.7498680634317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>27.4130882143048</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -3553,7 +3553,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>223.5790792454225</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>81.64802493589363</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.2329405200862</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>72.76769201460587</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>147.267552145388</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>204.3589581841904</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>204.2588269941066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>73.37668880174277</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>322.0072940269171</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>322.0072940269171</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>322.0072940269171</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>322.0072940269171</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>322.0072940269171</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>43.06132059019444</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>1099.465256491931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>1104.626054809422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>879.8992409003624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>879.8992409003624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>879.8992409003624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>879.8992409003624</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>600.9532674636398</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y2" t="n">
-        <v>322.0072940269171</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>632.1139207147505</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>457.6608914336235</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>457.6608914336235</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>419.9160846422163</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>273.3815266691013</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>134.7267908976475</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>405.6478494291521</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288495</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121333</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>1104.626054809422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940351</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940351</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="T3" t="n">
-        <v>1008.180757940351</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="U3" t="n">
-        <v>1008.180757940351</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="V3" t="n">
-        <v>1008.180757940351</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W3" t="n">
-        <v>1008.180757940351</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X3" t="n">
-        <v>800.3292577348186</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y3" t="n">
-        <v>800.3292577348186</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>160.9488293168851</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618843</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618843</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.149526959219</v>
+        <v>484.1848034624637</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.149526959219</v>
+        <v>237.1517404714108</v>
       </c>
       <c r="D5" t="n">
-        <v>1568.149526959219</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.288858935031</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Y5" t="n">
-        <v>1568.149526959219</v>
+        <v>731.2178664535166</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>353.2555028754739</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>178.8024735943469</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>178.8024735943469</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>251.2267644261524</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>481.6032601595282</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>481.6032601595282</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>723.7203651970592</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>816.6307042331927</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>588.4076111072166</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>353.2555028754739</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>353.2555028754739</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>353.2555028754739</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>353.2555028754739</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.67413830922</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C7" t="n">
-        <v>352.67413830922</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>352.67413830922</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U7" t="n">
-        <v>352.67413830922</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V7" t="n">
-        <v>352.67413830922</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W7" t="n">
-        <v>352.67413830922</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X7" t="n">
-        <v>352.67413830922</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y7" t="n">
-        <v>352.67413830922</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1757.366513095501</v>
+        <v>324.1881920990789</v>
       </c>
       <c r="C8" t="n">
-        <v>1757.366513095501</v>
+        <v>324.1881920990789</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>324.1881920990789</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>324.1881920990789</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>58.28714770345607</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>58.28714770345607</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>58.28714770345607</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>843.966258332007</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>843.966258332007</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>590.0892364947017</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>590.0892364947017</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>324.1881920990789</v>
       </c>
       <c r="X8" t="n">
-        <v>2147.505845071313</v>
+        <v>324.1881920990789</v>
       </c>
       <c r="Y8" t="n">
-        <v>1757.366513095501</v>
+        <v>324.1881920990789</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>127.5068418833941</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>127.5068418833941</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>127.5068418833941</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>127.5068418833941</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>127.5068418833941</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>281.6689763282832</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>524.903632156528</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>785.3166962490201</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>824.7478070488712</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>589.5956988171286</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>335.3583420889269</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>127.5068418833941</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>127.5068418833941</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.7118141694738</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="C10" t="n">
-        <v>438.7118141694738</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="D10" t="n">
-        <v>288.5951747571381</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>176.8194339304876</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694738</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694738</v>
+        <v>182.5089274706535</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2388.358616186807</v>
+        <v>1135.888471323017</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5077,16 +5077,16 @@
         <v>2388.358616186807</v>
       </c>
       <c r="V11" t="n">
-        <v>2388.358616186807</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W11" t="n">
-        <v>2388.358616186807</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X11" t="n">
-        <v>2388.358616186807</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y11" t="n">
-        <v>2388.358616186807</v>
+        <v>1135.888471323017</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424003</v>
@@ -5138,7 +5138,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5159,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
         <v>53.94298182036445</v>
@@ -5226,25 +5226,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1199.13500546934</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C14" t="n">
-        <v>830.1724885289282</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D14" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E14" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
         <v>471.9067899221776</v>
@@ -5278,19 +5278,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5305,25 +5305,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U14" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V14" t="n">
-        <v>1838.661061815299</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W14" t="n">
-        <v>1485.892406545185</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X14" t="n">
-        <v>1199.13500546934</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y14" t="n">
-        <v>1199.13500546934</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5363,37 +5363,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
         <v>53.94298182036445</v>
@@ -5463,25 +5463,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1199.13500546934</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C17" t="n">
-        <v>830.1724885289282</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D17" t="n">
-        <v>471.9067899221776</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E17" t="n">
-        <v>471.9067899221776</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5521,13 +5521,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5545,22 +5545,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628377</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V17" t="n">
-        <v>1925.369419000534</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W17" t="n">
-        <v>1572.60076373042</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X17" t="n">
-        <v>1199.13500546934</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y17" t="n">
-        <v>1199.13500546934</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>332.1920961943572</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C19" t="n">
-        <v>163.2559132664503</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D19" t="n">
-        <v>163.2559132664503</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="E19" t="n">
-        <v>163.2559132664503</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="F19" t="n">
-        <v>163.2559132664503</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="G19" t="n">
-        <v>163.2559132664503</v>
+        <v>156.6881399709968</v>
       </c>
       <c r="H19" t="n">
-        <v>163.2559132664503</v>
+        <v>156.6881399709968</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y19" t="n">
-        <v>513.8405610245969</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1626.94664591678</v>
+        <v>984.6750962183016</v>
       </c>
       <c r="C20" t="n">
-        <v>1626.94664591678</v>
+        <v>984.6750962183016</v>
       </c>
       <c r="D20" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E20" t="n">
         <v>882.8926947117852</v>
@@ -5752,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5785,19 +5785,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>2403.685817956713</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V20" t="n">
-        <v>2403.685817956713</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W20" t="n">
-        <v>2403.685817956713</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X20" t="n">
-        <v>2403.685817956713</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y20" t="n">
-        <v>2013.546485980902</v>
+        <v>1371.274936282423</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5943,19 +5943,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V22" t="n">
-        <v>517.7458231623355</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1536.177557778964</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="C23" t="n">
-        <v>1536.177557778964</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.911859172214</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E23" t="n">
-        <v>792.1236065739693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5989,19 +5989,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2692.351244357897</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2516.173756672067</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2516.173756672067</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2262.411971310158</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V23" t="n">
-        <v>2262.411971310158</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W23" t="n">
-        <v>1909.643316040044</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X23" t="n">
-        <v>1536.177557778964</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y23" t="n">
-        <v>1536.177557778964</v>
+        <v>799.8716139843721</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
         <v>53.94298182036445</v>
@@ -6177,22 +6177,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>272.8312459770186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1241.158393318536</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="C26" t="n">
-        <v>1241.158393318536</v>
+        <v>589.4492616060802</v>
       </c>
       <c r="D26" t="n">
-        <v>882.8926947117852</v>
+        <v>231.1835629993297</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>231.1835629993297</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.752638628377</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V26" t="n">
-        <v>1893.689751284806</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W26" t="n">
-        <v>1540.921096014692</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X26" t="n">
-        <v>1241.158393318536</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y26" t="n">
-        <v>1241.158393318536</v>
+        <v>976.0491016702019</v>
       </c>
     </row>
     <row r="27">
@@ -6308,28 +6308,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
         <v>2488.762748073963</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>525.0086166875648</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>525.0086166875648</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>525.0086166875648</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>525.0086166875648</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W28" t="n">
-        <v>235.5914466506042</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X28" t="n">
-        <v>235.5914466506042</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y28" t="n">
-        <v>235.5914466506042</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1618.505393690771</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.68094731003</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6481,34 +6481,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304456</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U29" t="n">
-        <v>2302.336936304456</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V29" t="n">
-        <v>1971.274048960885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W29" t="n">
-        <v>1618.505393690771</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X29" t="n">
-        <v>1618.505393690771</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y29" t="n">
-        <v>1618.505393690771</v>
+        <v>1880.75400999389</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6563,28 +6563,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>684.3735766921516</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V31" t="n">
-        <v>684.3735766921516</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W31" t="n">
-        <v>684.3735766921516</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X31" t="n">
-        <v>456.3840257941342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y31" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1209.912517095719</v>
+        <v>1738.389234072494</v>
       </c>
       <c r="C32" t="n">
-        <v>1209.912517095719</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="D32" t="n">
-        <v>851.6468184889688</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E32" t="n">
-        <v>851.6468184889688</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F32" t="n">
-        <v>440.6609136993613</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
         <v>2697.149091018222</v>
@@ -6727,25 +6727,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2267.209817970484</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V32" t="n">
-        <v>1936.146930626913</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W32" t="n">
-        <v>1583.378275356799</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X32" t="n">
-        <v>1209.912517095719</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y32" t="n">
-        <v>1209.912517095719</v>
+        <v>1738.389234072494</v>
       </c>
     </row>
     <row r="33">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C34" t="n">
         <v>53.94298182036445</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>857.6950425204218</v>
+        <v>1352.60098147425</v>
       </c>
       <c r="C35" t="n">
-        <v>857.6950425204218</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D35" t="n">
-        <v>857.6950425204218</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E35" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6955,34 +6955,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>1364.743608328862</v>
+        <v>1352.60098147425</v>
       </c>
       <c r="X35" t="n">
-        <v>991.2778500677821</v>
+        <v>1352.60098147425</v>
       </c>
       <c r="Y35" t="n">
-        <v>991.2778500677821</v>
+        <v>1352.60098147425</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7028,31 +7028,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>372.9958041606071</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C37" t="n">
-        <v>204.0596212327002</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E37" t="n">
         <v>53.94298182036445</v>
@@ -7134,13 +7134,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y37" t="n">
-        <v>554.6442689908469</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1268.68094731003</v>
+        <v>885.3850306156792</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.68094731003</v>
+        <v>885.3850306156792</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F38" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533133</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733118</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224067</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N38" t="n">
         <v>1836.345445977174</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U38" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V38" t="n">
-        <v>1881.118241157406</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W38" t="n">
-        <v>1881.118241157406</v>
+        <v>2035.589960916692</v>
       </c>
       <c r="X38" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y38" t="n">
-        <v>1655.280787374151</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7265,37 +7265,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>325.6879402326646</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="C40" t="n">
-        <v>156.7517573047577</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="D40" t="n">
-        <v>156.7517573047577</v>
+        <v>136.4157342808631</v>
       </c>
       <c r="E40" t="n">
-        <v>156.7517573047577</v>
+        <v>136.4157342808631</v>
       </c>
       <c r="F40" t="n">
-        <v>156.7517573047577</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>156.7517573047577</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="Y40" t="n">
-        <v>507.3364050629043</v>
+        <v>286.5323736931988</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1293.182375355301</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="C41" t="n">
-        <v>924.2198584148889</v>
+        <v>606.5783214787459</v>
       </c>
       <c r="D41" t="n">
-        <v>924.2198584148889</v>
+        <v>606.5783214787459</v>
       </c>
       <c r="E41" t="n">
-        <v>538.4316058166446</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>127.445701027037</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7411,25 +7411,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
         <v>2697.149091018222</v>
@@ -7441,22 +7441,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2443.387305656314</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V41" t="n">
-        <v>2443.387305656314</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W41" t="n">
-        <v>2443.387305656314</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X41" t="n">
-        <v>2069.921547395234</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y41" t="n">
-        <v>1679.782215419422</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7490,43 +7490,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>507.3364050629043</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
         <v>53.94298182036445</v>
@@ -7602,19 +7602,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>507.3364050629043</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1610.120910258947</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="C44" t="n">
-        <v>1241.158393318536</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="D44" t="n">
-        <v>882.8926947117852</v>
+        <v>741.0268678743128</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>741.0268678743128</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>741.0268678743128</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
@@ -7660,40 +7660,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2520.971603332393</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2189.908715988822</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>2189.908715988822</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X44" t="n">
-        <v>1816.442957727742</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y44" t="n">
-        <v>1610.120910258947</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7727,19 +7727,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
         <v>2188.831293537797</v>
@@ -7748,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>411.2797076961344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>264.3897601982241</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>264.3897601982241</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
         <v>53.94298182036445</v>
@@ -7839,19 +7839,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>349.7270020469158</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>372.8353096890152</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>129.2864630672354</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>127.806478742992</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>364.159032872827</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9023,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9655,7 +9655,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720729</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747027</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11390,7 +11390,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22549,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>139.005434824964</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>317.2738353952349</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611361</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536982</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="3">
@@ -22628,28 +22628,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>120.2777217319078</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>55.3580723357268</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,28 +22746,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>222.9160118599466</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>138.1711093023382</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>120.7101594098652</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>139.2721869569888</v>
       </c>
       <c r="E5" t="n">
-        <v>27.44887891165956</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>40.12885403745571</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22925,13 +22925,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22947,28 +22947,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>144.7266387637458</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>149.4414326714929</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23026,25 +23026,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>346.7384205022846</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>170.0536550519214</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>31.91101230410752</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23184,28 +23184,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>59.5493396620945</v>
+        <v>140.801364041805</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>87.32913021289943</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>193.016823106919</v>
       </c>
     </row>
     <row r="12">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23466,25 +23466,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>117.5062691663786</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>171.4429748595358</v>
       </c>
     </row>
     <row r="14">
@@ -23500,13 +23500,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>85.84127361338238</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>132.9986401243652</v>
       </c>
     </row>
     <row r="15">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -23673,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>49.80904827649567</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>31.36287103857046</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>127.6749024800429</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>26.74581966071327</v>
+        <v>33.24791522321225</v>
       </c>
       <c r="J19" t="n">
         <v>45.199959188537</v>
@@ -23940,7 +23940,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,10 +23974,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>253.9184641292317</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24025,16 +24025,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>189.5896425611788</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24183,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V22" t="n">
-        <v>43.85831389017025</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>380.8779075140578</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>49.72853438108914</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24417,7 +24417,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.885271837007167</v>
+        <v>192.2558333115945</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>383.3391866193971</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>72.96602500927452</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>38.2851774626476</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>11.05637510633795</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>18.94668985407361</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>156.1418925431607</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,22 +24888,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>168.8276855108789</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>123.9453835684543</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>30.93341746058809</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>58.0209484665412</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,13 +25125,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>250.4868621915939</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25174,7 +25174,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>42.45720198874574</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>81.37511273779111</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.83478528866308</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25396,13 +25396,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>327.2699534063781</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>162.658859410631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>63.77302308703761</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>54.39020111224588</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
@@ -25599,10 +25599,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25636,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.6974295521756</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>341.0164780061891</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25681,16 +25681,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>19.9792689532398</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
@@ -25842,19 +25842,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>209.4252118366046</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>181.9791116619469</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>82.79420004005237</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
         <v>45.19995918853699</v>
@@ -26079,13 +26079,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>502636.0448791047</v>
+        <v>473855.6414396568</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>796086.3337174788</v>
+        <v>476884.1968618534</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>796086.333717479</v>
+        <v>492587.8800625087</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796086.3337174791</v>
+        <v>796086.3337174788</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796086.3337174793</v>
+        <v>796086.3337174791</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>796086.3337174791</v>
+        <v>796086.333717479</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796086.3337174791</v>
+        <v>796086.333717479</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796086.333717479</v>
+        <v>796086.3337174788</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>796086.3337174791</v>
+        <v>796086.333717479</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159463.6497950858</v>
+        <v>149544.6052781991</v>
       </c>
       <c r="C2" t="n">
-        <v>260237.3490141817</v>
+        <v>150588.1755146547</v>
       </c>
       <c r="D2" t="n">
-        <v>260237.3490141816</v>
+        <v>156006.1355264978</v>
       </c>
       <c r="E2" t="n">
         <v>260237.3490141816</v>
@@ -26328,22 +26328,22 @@
         <v>260237.3490141816</v>
       </c>
       <c r="G2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="H2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="I2" t="n">
+        <v>260237.3490141815</v>
+      </c>
+      <c r="J2" t="n">
         <v>260237.3490141816</v>
       </c>
-      <c r="H2" t="n">
-        <v>260237.3490141816</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>260237.3490141818</v>
+      </c>
+      <c r="L2" t="n">
         <v>260237.3490141817</v>
-      </c>
-      <c r="J2" t="n">
-        <v>260237.3490141817</v>
-      </c>
-      <c r="K2" t="n">
-        <v>260237.3490141816</v>
-      </c>
-      <c r="L2" t="n">
-        <v>260237.3490141816</v>
       </c>
       <c r="M2" t="n">
         <v>260237.3490141816</v>
@@ -26355,7 +26355,7 @@
         <v>260237.3490141816</v>
       </c>
       <c r="P2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141818</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>440708.0835147456</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22364.98695753535</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>407720.4376835744</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.6948711391</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>102466.1171957467</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4727.563118847362</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>102434.1176906352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42169.81622231289</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="C4" t="n">
-        <v>44802.65617556861</v>
+        <v>42033.93659314635</v>
       </c>
       <c r="D4" t="n">
-        <v>44802.65617556861</v>
+        <v>42100.10620798598</v>
       </c>
       <c r="E4" t="n">
         <v>44802.65617556861</v>
@@ -26441,22 +26441,22 @@
         <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
+        <v>44802.65617556861</v>
+      </c>
+      <c r="K4" t="n">
         <v>44802.6561755686</v>
-      </c>
-      <c r="K4" t="n">
-        <v>44802.65617556861</v>
       </c>
       <c r="L4" t="n">
         <v>44802.6561755686</v>
       </c>
       <c r="M4" t="n">
+        <v>44802.6561755686</v>
+      </c>
+      <c r="N4" t="n">
+        <v>44802.65617556859</v>
+      </c>
+      <c r="O4" t="n">
         <v>44802.65617556861</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44802.65617556861</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44802.6561755686</v>
       </c>
       <c r="P4" t="n">
         <v>44802.6561755686</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51181.37951678014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26496,7 +26496,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-71847.83998214471</v>
+        <v>-22745.32143501046</v>
       </c>
       <c r="C6" t="n">
-        <v>-314200.8824853612</v>
+        <v>54269.30616454549</v>
       </c>
       <c r="D6" t="n">
-        <v>126507.2010293844</v>
+        <v>40220.73128240743</v>
       </c>
       <c r="E6" t="n">
-        <v>160134.8010293843</v>
+        <v>-242124.0642829527</v>
       </c>
       <c r="F6" t="n">
-        <v>160134.8010293843</v>
+        <v>165596.3734006216</v>
       </c>
       <c r="G6" t="n">
-        <v>160134.8010293843</v>
+        <v>165596.3734006217</v>
       </c>
       <c r="H6" t="n">
-        <v>160134.8010293843</v>
+        <v>165596.3734006217</v>
       </c>
       <c r="I6" t="n">
-        <v>160134.8010293844</v>
+        <v>165596.3734006215</v>
       </c>
       <c r="J6" t="n">
-        <v>87880.10615824533</v>
+        <v>102536.4308015154</v>
       </c>
       <c r="K6" t="n">
-        <v>57668.68383363767</v>
+        <v>164683.1175981647</v>
       </c>
       <c r="L6" t="n">
-        <v>160134.8010293843</v>
+        <v>160868.8102817744</v>
       </c>
       <c r="M6" t="n">
-        <v>160134.8010293843</v>
+        <v>63162.25570998652</v>
       </c>
       <c r="N6" t="n">
-        <v>160134.8010293843</v>
+        <v>165596.3734006217</v>
       </c>
       <c r="O6" t="n">
-        <v>160134.8010293843</v>
+        <v>165596.3734006216</v>
       </c>
       <c r="P6" t="n">
-        <v>160134.8010293843</v>
+        <v>165596.3734006219</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26761,7 +26761,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
         <v>377.7436642170867</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26816,7 +26816,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26825,7 +26825,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>342.7224034979614</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.33951979354706</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>354.7302815302972</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>398.1307590522002</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>411.045238802889</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>398.1307590522003</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.045238802889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>398.1307590522002</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.045238802889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>121.9644487350302</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>204.1123577751702</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>243.8886146223321</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>233.0551918837966</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>174.4233304118708</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>248.6418854471727</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
-        <v>237.9770422219166</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>49.4834113647894</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>232.7035310438139</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>245.6915715436816</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>76.41420694903813</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
@@ -35740,10 +35740,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K32" t="n">
         <v>297.223041434342</v>
@@ -37089,7 +37089,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181302</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343415</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
         <v>421.5361394435302</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.3752747153553</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K41" t="n">
         <v>297.223041434342</v>
@@ -37800,7 +37800,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
         <v>478.8956552492237</v>
@@ -38037,7 +38037,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38110,7 +38110,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735647</v>
